--- a/ArticleManage/main_working_folder/output_folders/Data 23 Microporous texture of activated/Data23_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 23 Microporous texture of activated/Data23_all_graphs_excel.xlsx
@@ -5,17 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 0%BO  0&amp;1&amp;0&amp;500 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 16%BO  0&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 17%BO  0&amp;1&amp;0&amp;400 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 26%BO  0&amp;1&amp;0&amp;500 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 36%BO  0&amp;1&amp;0&amp;500 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 48%BO  0&amp;1&amp;0&amp;400 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 5%BO  0&amp;1&amp;0&amp;400 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 2 53%BO  0&amp;1&amp;0&amp;500 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 2 57%BO  0&amp;1&amp;0&amp;400 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 2 7%BO  0&amp;1&amp;0&amp;400 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 2 74%BO  0&amp;1&amp;0&amp;500 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 2_1 17%BO  0&amp;1&amp;0&amp;400 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 48%BO  0&amp;1&amp;0&amp;400 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 5%BO  0&amp;1&amp;0&amp;400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 57%BO  0&amp;1&amp;0&amp;400 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 7%BO  0&amp;1&amp;0&amp;400 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 0%BO  0&amp;1&amp;0&amp;500 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 16%BO  0&amp;1&amp;0&amp;500 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_2 26%BO  0&amp;1&amp;0&amp;500 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_2 36%BO  0&amp;1&amp;0&amp;500 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 2_2 53%BO  0&amp;1&amp;0&amp;500 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 2_2 74%BO  0&amp;1&amp;0&amp;500 " sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>0%BO</t>
+    <t>17%BO</t>
   </si>
   <si>
     <t>X</t>
@@ -33,10 +33,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>16%BO</t>
+    <t>48%BO</t>
   </si>
   <si>
-    <t>17%BO</t>
+    <t>5%BO</t>
+  </si>
+  <si>
+    <t>57%BO</t>
+  </si>
+  <si>
+    <t>7%BO</t>
+  </si>
+  <si>
+    <t>0%BO</t>
+  </si>
+  <si>
+    <t>16%BO</t>
   </si>
   <si>
     <t>26%BO</t>
@@ -45,19 +57,7 @@
     <t>36%BO</t>
   </si>
   <si>
-    <t>48%BO</t>
-  </si>
-  <si>
-    <t>5%BO</t>
-  </si>
-  <si>
     <t>53%BO</t>
-  </si>
-  <si>
-    <t>57%BO</t>
-  </si>
-  <si>
-    <t>7%BO</t>
   </si>
   <si>
     <t>74%BO</t>
@@ -137,7 +137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 17%BO z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -196,12 +196,326 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 0%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 17%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 0%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 17%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 53%BO z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 53%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 53%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -418,7 +732,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -451,7 +765,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 7%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 74%BO z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -510,326 +824,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 7%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 74%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 7%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 74%BO z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 74%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 74%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 74%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1079,7 +1079,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 16%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 48%BO z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1138,12 +1138,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 16%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 48%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 16%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 48%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1227,7 +1227,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
+          <c:max val="400"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1393,7 +1393,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 17%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 5%BO z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1452,12 +1452,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 17%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 5%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 17%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 5%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1707,7 +1707,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 26%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 57%BO z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1766,12 +1766,640 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 26%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 57%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 26%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 57%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 7%BO z wykresu 'Figure 2_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 7%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 7%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 0%BO z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 0%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 0%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1988,7 +2616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2021,7 +2649,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 36%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 16%BO z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2080,12 +2708,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 36%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 16%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 36%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 16%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2302,7 +2930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2335,7 +2963,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 48%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 26%BO z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2394,640 +3022,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 48%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 26%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 48%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 5%BO z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 5%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 5%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 53%BO z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 53%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 53%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 26%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3277,7 +3277,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 57%BO z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki 36%BO z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3336,12 +3336,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 57%BO  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 36%BO  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 57%BO  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 36%BO  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3425,7 +3425,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
+          <c:max val="500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10411,7 +10411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10432,213 +10432,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.981</v>
+        <v>0.9516</v>
       </c>
       <c r="B3" s="0">
-        <v>0.6982</v>
+        <v>188.8814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97</v>
+        <v>0.8991</v>
       </c>
       <c r="B4" s="0">
-        <v>0.342</v>
+        <v>188.8814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9482</v>
+        <v>0.8452</v>
       </c>
       <c r="B5" s="0">
-        <v>1.039</v>
+        <v>188.3456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8973</v>
+        <v>0.7971</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0211</v>
+        <v>188.0777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8493</v>
+        <v>0.7475</v>
       </c>
       <c r="B7" s="0">
-        <v>1.0041</v>
+        <v>187.2739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7974</v>
+        <v>0.695</v>
       </c>
       <c r="B8" s="0">
-        <v>0.9859</v>
+        <v>187.2739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7461</v>
+        <v>0.645</v>
       </c>
       <c r="B9" s="0">
-        <v>1.3201</v>
+        <v>186.7381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6976</v>
+        <v>0.5954</v>
       </c>
       <c r="B10" s="0">
-        <v>1.303</v>
+        <v>186.4702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6472</v>
+        <v>0.5439</v>
       </c>
       <c r="B11" s="0">
-        <v>0.9329</v>
+        <v>185.9344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5972</v>
+        <v>0.4928</v>
       </c>
       <c r="B12" s="0">
-        <v>1.2677</v>
+        <v>185.1306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5468</v>
+        <v>0.4456</v>
       </c>
       <c r="B13" s="0">
-        <v>0.8976</v>
+        <v>184.3269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4974</v>
+        <v>0.3941</v>
       </c>
       <c r="B14" s="0">
-        <v>1.2325</v>
+        <v>184.3269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4484</v>
+        <v>0.344</v>
       </c>
       <c r="B15" s="0">
-        <v>0.8629</v>
+        <v>183.2552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3966</v>
+        <v>0.2935</v>
       </c>
       <c r="B16" s="0">
-        <v>0.8446</v>
+        <v>182.4514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3485</v>
+        <v>0.2439</v>
       </c>
       <c r="B17" s="0">
-        <v>0.4753</v>
+        <v>181.9156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2981</v>
+        <v>0.2167</v>
       </c>
       <c r="B18" s="0">
-        <v>0.4576</v>
+        <v>180.8439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2468</v>
+        <v>0.1905</v>
       </c>
       <c r="B19" s="0">
-        <v>0.4395</v>
+        <v>180.0402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2216</v>
+        <v>0.1662</v>
       </c>
       <c r="B20" s="0">
-        <v>0.4306</v>
+        <v>179.2364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1964</v>
+        <v>0.1418</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0694</v>
+        <v>178.4327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1721</v>
+        <v>0.1209</v>
       </c>
       <c r="B22" s="0">
-        <v>0.7655</v>
+        <v>177.8969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1465</v>
+        <v>0.0942</v>
       </c>
       <c r="B23" s="0">
-        <v>0.4041</v>
+        <v>176.2894</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1213</v>
+        <v>0.0674</v>
       </c>
       <c r="B24" s="0">
-        <v>0.7476</v>
+        <v>174.4139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0965</v>
+        <v>0.0426</v>
       </c>
       <c r="B25" s="0">
-        <v>0.3865</v>
+        <v>171.7348</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0718</v>
+        <v>0.0174</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0255</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0471</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.0168</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0219</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.7126</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>166.6443</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10668,202 +10652,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0163</v>
+        <v>0.9868</v>
       </c>
       <c r="B3" s="0">
-        <v>95.1105</v>
+        <v>292.1026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0416</v>
+        <v>0.9454</v>
       </c>
       <c r="B4" s="0">
-        <v>100.4689</v>
+        <v>290.6786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0669</v>
+        <v>0.895</v>
       </c>
       <c r="B5" s="0">
-        <v>103.9518</v>
+        <v>289.9561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0922</v>
+        <v>0.8446</v>
       </c>
       <c r="B6" s="0">
-        <v>107.1668</v>
+        <v>290.2907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.116</v>
+        <v>0.7938</v>
       </c>
       <c r="B7" s="0">
-        <v>108.5064</v>
+        <v>289.5681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1418</v>
+        <v>0.7438</v>
       </c>
       <c r="B8" s="0">
-        <v>109.8459</v>
+        <v>289.1981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1666</v>
+        <v>0.6929</v>
       </c>
       <c r="B9" s="0">
-        <v>111.1855</v>
+        <v>289.1802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1933</v>
+        <v>0.6416</v>
       </c>
       <c r="B10" s="0">
-        <v>112.793</v>
+        <v>288.4574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.219</v>
+        <v>0.5926</v>
       </c>
       <c r="B11" s="0">
-        <v>114.4005</v>
+        <v>288.4401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2443</v>
+        <v>0.5413</v>
       </c>
       <c r="B12" s="0">
-        <v>116.008</v>
+        <v>287.0126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2944</v>
+        <v>0.4904</v>
       </c>
       <c r="B13" s="0">
-        <v>117.3476</v>
+        <v>286.2899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3492</v>
+        <v>0.44</v>
       </c>
       <c r="B14" s="0">
-        <v>118.9551</v>
+        <v>285.9198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3917</v>
+        <v>0.3905</v>
       </c>
       <c r="B15" s="0">
-        <v>120.0268</v>
+        <v>285.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4494</v>
+        <v>0.342</v>
       </c>
       <c r="B16" s="0">
-        <v>121.3664</v>
+        <v>283.4188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4923</v>
+        <v>0.2964</v>
       </c>
       <c r="B17" s="0">
-        <v>121.9022</v>
+        <v>282.3456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5395</v>
+        <v>0.2408</v>
       </c>
       <c r="B18" s="0">
-        <v>122.9739</v>
+        <v>280.9166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5991</v>
+        <v>0.2165</v>
       </c>
       <c r="B19" s="0">
-        <v>124.3135</v>
+        <v>279.8509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6425</v>
+        <v>0.1965</v>
       </c>
       <c r="B20" s="0">
-        <v>125.3851</v>
+        <v>279.8439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6916</v>
+        <v>0.169</v>
       </c>
       <c r="B21" s="0">
-        <v>126.4568</v>
+        <v>278.4247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7412</v>
+        <v>0.1423</v>
       </c>
       <c r="B22" s="0">
-        <v>126.4568</v>
+        <v>277.0059</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7913</v>
+        <v>0.1162</v>
       </c>
       <c r="B23" s="0">
-        <v>128.0643</v>
+        <v>274.8825</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8499</v>
+        <v>0.0929</v>
       </c>
       <c r="B24" s="0">
-        <v>129.136</v>
+        <v>272.7602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8948</v>
+        <v>0.0672</v>
       </c>
       <c r="B25" s="0">
-        <v>129.6718</v>
+        <v>269.2275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9434</v>
+        <v>0.0425</v>
       </c>
       <c r="B26" s="0">
-        <v>130.2076</v>
+        <v>263.581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9835</v>
+        <v>0.0159</v>
       </c>
       <c r="B27" s="0">
-        <v>131.2793</v>
+        <v>250.182</v>
       </c>
     </row>
     <row r="28"/>
@@ -11103,6 +11087,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.968</v>
+      </c>
+      <c r="B3" s="0">
+        <v>320.4287</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9465</v>
+      </c>
+      <c r="B4" s="0">
+        <v>319.8928</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8964</v>
+      </c>
+      <c r="B5" s="0">
+        <v>319.6249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8454</v>
+      </c>
+      <c r="B6" s="0">
+        <v>319.0891</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7953</v>
+      </c>
+      <c r="B7" s="0">
+        <v>318.2853</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7448</v>
+      </c>
+      <c r="B8" s="0">
+        <v>318.0174</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6937</v>
+      </c>
+      <c r="B9" s="0">
+        <v>317.4816</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6437</v>
+      </c>
+      <c r="B10" s="0">
+        <v>316.142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5931</v>
+      </c>
+      <c r="B11" s="0">
+        <v>315.8741</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5426</v>
+      </c>
+      <c r="B12" s="0">
+        <v>315.0703</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4925</v>
+      </c>
+      <c r="B13" s="0">
+        <v>314.2666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.442</v>
+      </c>
+      <c r="B14" s="0">
+        <v>313.4628</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3928</v>
+      </c>
+      <c r="B15" s="0">
+        <v>312.1232</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3437</v>
+      </c>
+      <c r="B16" s="0">
+        <v>311.0516</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3022</v>
+      </c>
+      <c r="B17" s="0">
+        <v>309.9799</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2412</v>
+      </c>
+      <c r="B18" s="0">
+        <v>308.1045</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2178</v>
+      </c>
+      <c r="B19" s="0">
+        <v>307.5687</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1964</v>
+      </c>
+      <c r="B20" s="0">
+        <v>306.497</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1654</v>
+      </c>
+      <c r="B21" s="0">
+        <v>305.1574</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1458</v>
+      </c>
+      <c r="B22" s="0">
+        <v>303.8178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1196</v>
+      </c>
+      <c r="B23" s="0">
+        <v>301.9424</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0953</v>
+      </c>
+      <c r="B24" s="0">
+        <v>300.3349</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0685</v>
+      </c>
+      <c r="B25" s="0">
+        <v>295.5124</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0428</v>
+      </c>
+      <c r="B26" s="0">
+        <v>289.3503</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.017</v>
+      </c>
+      <c r="B27" s="0">
+        <v>273.0074</v>
+      </c>
+    </row>
+    <row r="28"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11111,7 +11323,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -11124,210 +11336,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0155</v>
+        <v>0.9844</v>
       </c>
       <c r="B3" s="0">
-        <v>59.907</v>
+        <v>76.0884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0407</v>
+        <v>0.9681</v>
       </c>
       <c r="B4" s="0">
-        <v>64.8489</v>
+        <v>76.0884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0659</v>
+        <v>0.9424</v>
       </c>
       <c r="B5" s="0">
-        <v>69.0861</v>
+        <v>75.2847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0906</v>
+        <v>0.899</v>
       </c>
       <c r="B6" s="0">
-        <v>71.9137</v>
+        <v>74.7488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1158</v>
+        <v>0.8403</v>
       </c>
       <c r="B7" s="0">
-        <v>75.4462</v>
+        <v>73.4092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1405</v>
+        <v>0.7907</v>
       </c>
       <c r="B8" s="0">
-        <v>77.2167</v>
+        <v>72.8734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1657</v>
+        <v>0.7464</v>
       </c>
       <c r="B9" s="0">
-        <v>79.3397</v>
+        <v>72.0697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1895</v>
+        <v>0.6892</v>
       </c>
       <c r="B10" s="0">
-        <v>80.7576</v>
+        <v>70.4622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2161</v>
+        <v>0.6415</v>
       </c>
       <c r="B11" s="0">
-        <v>82.8811</v>
+        <v>69.9263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2413</v>
+        <v>0.5981</v>
       </c>
       <c r="B12" s="0">
-        <v>85.3565</v>
+        <v>69.6584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2955</v>
+        <v>0.5404</v>
       </c>
       <c r="B13" s="0">
-        <v>87.1374</v>
+        <v>68.5867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3412</v>
+        <v>0.4984</v>
       </c>
       <c r="B14" s="0">
-        <v>89.2677</v>
+        <v>67.783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3944</v>
+        <v>0.4479</v>
       </c>
       <c r="B15" s="0">
-        <v>91.753</v>
+        <v>66.7113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4453</v>
+        <v>0.3911</v>
       </c>
       <c r="B16" s="0">
-        <v>93.885</v>
+        <v>65.3717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4957</v>
+        <v>0.3487</v>
       </c>
       <c r="B17" s="0">
-        <v>96.7217</v>
+        <v>64.8359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5456</v>
+        <v>0.2938</v>
       </c>
       <c r="B18" s="0">
-        <v>99.5582</v>
+        <v>63.7642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5955</v>
+        <v>0.2423</v>
       </c>
       <c r="B19" s="0">
-        <v>101.3376</v>
+        <v>62.6926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6459</v>
+        <v>0.2166</v>
       </c>
       <c r="B20" s="0">
-        <v>103.1171</v>
+        <v>61.353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6892</v>
+        <v>0.1918</v>
       </c>
       <c r="B21" s="0">
-        <v>104.5418</v>
+        <v>60.5492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7467</v>
+        <v>0.167</v>
       </c>
       <c r="B22" s="0">
-        <v>106.3239</v>
+        <v>59.7455</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.79</v>
+        <v>0.1417</v>
       </c>
       <c r="B23" s="0">
-        <v>107.3962</v>
+        <v>58.4059</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8399</v>
+        <v>0.1164</v>
       </c>
       <c r="B24" s="0">
-        <v>108.4709</v>
+        <v>56.7984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8946</v>
+        <v>0.0911</v>
       </c>
       <c r="B25" s="0">
-        <v>110.6043</v>
+        <v>55.7267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9402</v>
+        <v>0.0664</v>
       </c>
       <c r="B26" s="0">
-        <v>111.6775</v>
+        <v>54.3871</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9697</v>
+        <v>0.0415</v>
       </c>
       <c r="B27" s="0">
-        <v>113.4497</v>
+        <v>51.9759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9811</v>
+        <v>0.0163</v>
       </c>
       <c r="B28" s="0">
-        <v>112.749</v>
+        <v>47.4213</v>
       </c>
     </row>
     <row r="29"/>
@@ -11337,7 +11549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -11347,7 +11559,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -11360,425 +11572,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9516</v>
+        <v>0.9446</v>
       </c>
       <c r="B3" s="0">
-        <v>188.8814</v>
+        <v>359.5445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8991</v>
+        <v>0.8941</v>
       </c>
       <c r="B4" s="0">
-        <v>188.8814</v>
+        <v>359.0087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8452</v>
+        <v>0.8431</v>
       </c>
       <c r="B5" s="0">
-        <v>188.3456</v>
+        <v>358.4729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7971</v>
+        <v>0.7939</v>
       </c>
       <c r="B6" s="0">
-        <v>188.0777</v>
+        <v>357.4012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7475</v>
+        <v>0.7429</v>
       </c>
       <c r="B7" s="0">
-        <v>187.2739</v>
+        <v>356.5975</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.695</v>
+        <v>0.6919</v>
       </c>
       <c r="B8" s="0">
-        <v>187.2739</v>
+        <v>355.7937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.645</v>
+        <v>0.6423</v>
       </c>
       <c r="B9" s="0">
-        <v>186.7381</v>
+        <v>354.4541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5954</v>
+        <v>0.5913</v>
       </c>
       <c r="B10" s="0">
-        <v>186.4702</v>
+        <v>353.6504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5439</v>
+        <v>0.5407</v>
       </c>
       <c r="B11" s="0">
-        <v>185.9344</v>
+        <v>352.0429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4928</v>
+        <v>0.4906</v>
       </c>
       <c r="B12" s="0">
-        <v>185.1306</v>
+        <v>350.9712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4456</v>
+        <v>0.4453</v>
       </c>
       <c r="B13" s="0">
-        <v>184.3269</v>
+        <v>350.1674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3941</v>
+        <v>0.401</v>
       </c>
       <c r="B14" s="0">
-        <v>184.3269</v>
+        <v>348.8279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.344</v>
+        <v>0.3414</v>
       </c>
       <c r="B15" s="0">
-        <v>183.2552</v>
+        <v>346.9524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2935</v>
+        <v>0.2994</v>
       </c>
       <c r="B16" s="0">
-        <v>182.4514</v>
+        <v>345.6129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2439</v>
+        <v>0.2403</v>
       </c>
       <c r="B17" s="0">
-        <v>181.9156</v>
+        <v>343.2016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2167</v>
+        <v>0.2217</v>
       </c>
       <c r="B18" s="0">
-        <v>180.8439</v>
+        <v>342.1299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1905</v>
+        <v>0.195</v>
       </c>
       <c r="B19" s="0">
-        <v>180.0402</v>
+        <v>340.5224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1662</v>
+        <v>0.1678</v>
       </c>
       <c r="B20" s="0">
-        <v>179.2364</v>
+        <v>338.9149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1418</v>
+        <v>0.143</v>
       </c>
       <c r="B21" s="0">
-        <v>178.4327</v>
+        <v>337.0395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1209</v>
+        <v>0.1206</v>
       </c>
       <c r="B22" s="0">
-        <v>177.8969</v>
+        <v>334.8962</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0942</v>
+        <v>0.0943</v>
       </c>
       <c r="B23" s="0">
-        <v>176.2894</v>
+        <v>330.8774</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0674</v>
+        <v>0.0691</v>
       </c>
       <c r="B24" s="0">
-        <v>174.4139</v>
+        <v>324.9833</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0426</v>
+        <v>0.0433</v>
       </c>
       <c r="B25" s="0">
-        <v>171.7348</v>
+        <v>315.6062</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0174</v>
+        <v>0.017</v>
       </c>
       <c r="B26" s="0">
-        <v>166.6443</v>
+        <v>293.637</v>
       </c>
     </row>
     <row r="27"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0185</v>
-      </c>
-      <c r="B3" s="0">
-        <v>171.2541</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0437</v>
-      </c>
-      <c r="B4" s="0">
-        <v>176.9007</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0665</v>
-      </c>
-      <c r="B5" s="0">
-        <v>179.0229</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0941</v>
-      </c>
-      <c r="B6" s="0">
-        <v>180.4421</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1217</v>
-      </c>
-      <c r="B7" s="0">
-        <v>182.2136</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1426</v>
-      </c>
-      <c r="B8" s="0">
-        <v>181.5162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1726</v>
-      </c>
-      <c r="B9" s="0">
-        <v>183.641</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.194</v>
-      </c>
-      <c r="B10" s="0">
-        <v>184.0009</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2168</v>
-      </c>
-      <c r="B11" s="0">
-        <v>185.066</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2439</v>
-      </c>
-      <c r="B12" s="0">
-        <v>185.4279</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2924</v>
-      </c>
-      <c r="B13" s="0">
-        <v>186.8544</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3404</v>
-      </c>
-      <c r="B14" s="0">
-        <v>187.2237</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3922</v>
-      </c>
-      <c r="B15" s="0">
-        <v>188.2991</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4422</v>
-      </c>
-      <c r="B16" s="0">
-        <v>188.669</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4926</v>
-      </c>
-      <c r="B17" s="0">
-        <v>188.6868</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5439</v>
-      </c>
-      <c r="B18" s="0">
-        <v>189.4096</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5929</v>
-      </c>
-      <c r="B19" s="0">
-        <v>189.4268</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6447</v>
-      </c>
-      <c r="B20" s="0">
-        <v>189.7975</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6932</v>
-      </c>
-      <c r="B21" s="0">
-        <v>191.224</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7441</v>
-      </c>
-      <c r="B22" s="0">
-        <v>190.5372</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7931</v>
-      </c>
-      <c r="B23" s="0">
-        <v>191.6115</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.8449</v>
-      </c>
-      <c r="B24" s="0">
-        <v>191.6298</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8948</v>
-      </c>
-      <c r="B25" s="0">
-        <v>191.6474</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.9448</v>
-      </c>
-      <c r="B26" s="0">
-        <v>192.3697</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.9857</v>
-      </c>
-      <c r="B27" s="0">
-        <v>192.7365</v>
-      </c>
-    </row>
-    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11808,202 +11792,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9846</v>
+        <v>0.0163</v>
       </c>
       <c r="B3" s="0">
-        <v>234.3147</v>
+        <v>95.1105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9437</v>
+        <v>0.0416</v>
       </c>
       <c r="B4" s="0">
-        <v>233.5956</v>
+        <v>100.4689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8966</v>
+        <v>0.0669</v>
       </c>
       <c r="B5" s="0">
-        <v>233.2266</v>
+        <v>103.9518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8434</v>
+        <v>0.0922</v>
       </c>
       <c r="B6" s="0">
-        <v>232.8555</v>
+        <v>107.1668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7925</v>
+        <v>0.116</v>
       </c>
       <c r="B7" s="0">
-        <v>232.8375</v>
+        <v>108.5064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7435</v>
+        <v>0.1418</v>
       </c>
       <c r="B8" s="0">
-        <v>232.1156</v>
+        <v>109.8459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6926</v>
+        <v>0.1666</v>
       </c>
       <c r="B9" s="0">
-        <v>231.3929</v>
+        <v>111.1855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6427</v>
+        <v>0.1933</v>
       </c>
       <c r="B10" s="0">
-        <v>230.6706</v>
+        <v>112.793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5933</v>
+        <v>0.219</v>
       </c>
       <c r="B11" s="0">
-        <v>230.6532</v>
+        <v>114.4005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5414</v>
+        <v>0.2443</v>
       </c>
       <c r="B12" s="0">
-        <v>230.2826</v>
+        <v>116.008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4915</v>
+        <v>0.2944</v>
       </c>
       <c r="B13" s="0">
-        <v>229.5602</v>
+        <v>117.3476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.443</v>
+        <v>0.3492</v>
       </c>
       <c r="B14" s="0">
-        <v>228.8384</v>
+        <v>118.9551</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3959</v>
+        <v>0.3917</v>
       </c>
       <c r="B15" s="0">
-        <v>228.4695</v>
+        <v>120.0268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3522</v>
+        <v>0.4494</v>
       </c>
       <c r="B16" s="0">
-        <v>227.0446</v>
+        <v>121.3664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2923</v>
+        <v>0.4923</v>
       </c>
       <c r="B17" s="0">
-        <v>225.9664</v>
+        <v>121.9022</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2433</v>
+        <v>0.5395</v>
       </c>
       <c r="B18" s="0">
-        <v>224.5397</v>
+        <v>122.9739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2171</v>
+        <v>0.5991</v>
       </c>
       <c r="B19" s="0">
-        <v>224.1782</v>
+        <v>124.3135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1962</v>
+        <v>0.6425</v>
       </c>
       <c r="B20" s="0">
-        <v>223.1137</v>
+        <v>125.3851</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1663</v>
+        <v>0.6916</v>
       </c>
       <c r="B21" s="0">
-        <v>221.6937</v>
+        <v>126.4568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1463</v>
+        <v>0.7412</v>
       </c>
       <c r="B22" s="0">
-        <v>220.982</v>
+        <v>126.4568</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1187</v>
+        <v>0.7913</v>
       </c>
       <c r="B23" s="0">
-        <v>219.2104</v>
+        <v>128.0643</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0912</v>
+        <v>0.8499</v>
       </c>
       <c r="B24" s="0">
-        <v>217.4389</v>
+        <v>129.136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0674</v>
+        <v>0.8948</v>
       </c>
       <c r="B25" s="0">
-        <v>216.0211</v>
+        <v>129.6718</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0408</v>
+        <v>0.9434</v>
       </c>
       <c r="B26" s="0">
-        <v>211.431</v>
+        <v>130.2076</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.017</v>
+        <v>0.9835</v>
       </c>
       <c r="B27" s="0">
-        <v>202.6136</v>
+        <v>131.2793</v>
       </c>
     </row>
     <row r="28"/>
@@ -12015,7 +11999,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12036,205 +12020,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.968</v>
+        <v>0.981</v>
       </c>
       <c r="B3" s="0">
-        <v>320.4287</v>
+        <v>0.6982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9465</v>
+        <v>0.97</v>
       </c>
       <c r="B4" s="0">
-        <v>319.8928</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8964</v>
+        <v>0.9482</v>
       </c>
       <c r="B5" s="0">
-        <v>319.6249</v>
+        <v>1.039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8454</v>
+        <v>0.8973</v>
       </c>
       <c r="B6" s="0">
-        <v>319.0891</v>
+        <v>1.0211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7953</v>
+        <v>0.8493</v>
       </c>
       <c r="B7" s="0">
-        <v>318.2853</v>
+        <v>1.0041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7448</v>
+        <v>0.7974</v>
       </c>
       <c r="B8" s="0">
-        <v>318.0174</v>
+        <v>0.9859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6937</v>
+        <v>0.7461</v>
       </c>
       <c r="B9" s="0">
-        <v>317.4816</v>
+        <v>1.3201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6437</v>
+        <v>0.6976</v>
       </c>
       <c r="B10" s="0">
-        <v>316.142</v>
+        <v>1.303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5931</v>
+        <v>0.6472</v>
       </c>
       <c r="B11" s="0">
-        <v>315.8741</v>
+        <v>0.9329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5426</v>
+        <v>0.5972</v>
       </c>
       <c r="B12" s="0">
-        <v>315.0703</v>
+        <v>1.2677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4925</v>
+        <v>0.5468</v>
       </c>
       <c r="B13" s="0">
-        <v>314.2666</v>
+        <v>0.8976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.442</v>
+        <v>0.4974</v>
       </c>
       <c r="B14" s="0">
-        <v>313.4628</v>
+        <v>1.2325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3928</v>
+        <v>0.4484</v>
       </c>
       <c r="B15" s="0">
-        <v>312.1232</v>
+        <v>0.8629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3437</v>
+        <v>0.3966</v>
       </c>
       <c r="B16" s="0">
-        <v>311.0516</v>
+        <v>0.8446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3022</v>
+        <v>0.3485</v>
       </c>
       <c r="B17" s="0">
-        <v>309.9799</v>
+        <v>0.4753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2412</v>
+        <v>0.2981</v>
       </c>
       <c r="B18" s="0">
-        <v>308.1045</v>
+        <v>0.4576</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2178</v>
+        <v>0.2468</v>
       </c>
       <c r="B19" s="0">
-        <v>307.5687</v>
+        <v>0.4395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1964</v>
+        <v>0.2216</v>
       </c>
       <c r="B20" s="0">
-        <v>306.497</v>
+        <v>0.4306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1654</v>
+        <v>0.1964</v>
       </c>
       <c r="B21" s="0">
-        <v>305.1574</v>
+        <v>0.0694</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1458</v>
+        <v>0.1721</v>
       </c>
       <c r="B22" s="0">
-        <v>303.8178</v>
+        <v>0.7655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1196</v>
+        <v>0.1465</v>
       </c>
       <c r="B23" s="0">
-        <v>301.9424</v>
+        <v>0.4041</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0953</v>
+        <v>0.1213</v>
       </c>
       <c r="B24" s="0">
-        <v>300.3349</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0685</v>
+        <v>0.0965</v>
       </c>
       <c r="B25" s="0">
-        <v>295.5124</v>
+        <v>0.3865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0428</v>
+        <v>0.0718</v>
       </c>
       <c r="B26" s="0">
-        <v>289.3503</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.017</v>
+        <v>0.0471</v>
       </c>
       <c r="B27" s="0">
-        <v>273.0074</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>0.0168</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0219</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.7126</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12264,210 +12256,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9844</v>
+        <v>0.0155</v>
       </c>
       <c r="B3" s="0">
-        <v>76.0884</v>
+        <v>59.907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9681</v>
+        <v>0.0407</v>
       </c>
       <c r="B4" s="0">
-        <v>76.0884</v>
+        <v>64.8489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9424</v>
+        <v>0.0659</v>
       </c>
       <c r="B5" s="0">
-        <v>75.2847</v>
+        <v>69.0861</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.899</v>
+        <v>0.0906</v>
       </c>
       <c r="B6" s="0">
-        <v>74.7488</v>
+        <v>71.9137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8403</v>
+        <v>0.1158</v>
       </c>
       <c r="B7" s="0">
-        <v>73.4092</v>
+        <v>75.4462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7907</v>
+        <v>0.1405</v>
       </c>
       <c r="B8" s="0">
-        <v>72.8734</v>
+        <v>77.2167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7464</v>
+        <v>0.1657</v>
       </c>
       <c r="B9" s="0">
-        <v>72.0697</v>
+        <v>79.3397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6892</v>
+        <v>0.1895</v>
       </c>
       <c r="B10" s="0">
-        <v>70.4622</v>
+        <v>80.7576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6415</v>
+        <v>0.2161</v>
       </c>
       <c r="B11" s="0">
-        <v>69.9263</v>
+        <v>82.8811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5981</v>
+        <v>0.2413</v>
       </c>
       <c r="B12" s="0">
-        <v>69.6584</v>
+        <v>85.3565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5404</v>
+        <v>0.2955</v>
       </c>
       <c r="B13" s="0">
-        <v>68.5867</v>
+        <v>87.1374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4984</v>
+        <v>0.3412</v>
       </c>
       <c r="B14" s="0">
-        <v>67.783</v>
+        <v>89.2677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4479</v>
+        <v>0.3944</v>
       </c>
       <c r="B15" s="0">
-        <v>66.7113</v>
+        <v>91.753</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3911</v>
+        <v>0.4453</v>
       </c>
       <c r="B16" s="0">
-        <v>65.3717</v>
+        <v>93.885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3487</v>
+        <v>0.4957</v>
       </c>
       <c r="B17" s="0">
-        <v>64.8359</v>
+        <v>96.7217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2938</v>
+        <v>0.5456</v>
       </c>
       <c r="B18" s="0">
-        <v>63.7642</v>
+        <v>99.5582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2423</v>
+        <v>0.5955</v>
       </c>
       <c r="B19" s="0">
-        <v>62.6926</v>
+        <v>101.3376</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2166</v>
+        <v>0.6459</v>
       </c>
       <c r="B20" s="0">
-        <v>61.353</v>
+        <v>103.1171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1918</v>
+        <v>0.6892</v>
       </c>
       <c r="B21" s="0">
-        <v>60.5492</v>
+        <v>104.5418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.167</v>
+        <v>0.7467</v>
       </c>
       <c r="B22" s="0">
-        <v>59.7455</v>
+        <v>106.3239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1417</v>
+        <v>0.79</v>
       </c>
       <c r="B23" s="0">
-        <v>58.4059</v>
+        <v>107.3962</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1164</v>
+        <v>0.8399</v>
       </c>
       <c r="B24" s="0">
-        <v>56.7984</v>
+        <v>108.4709</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0911</v>
+        <v>0.8946</v>
       </c>
       <c r="B25" s="0">
-        <v>55.7267</v>
+        <v>110.6043</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0664</v>
+        <v>0.9402</v>
       </c>
       <c r="B26" s="0">
-        <v>54.3871</v>
+        <v>111.6775</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0415</v>
+        <v>0.9697</v>
       </c>
       <c r="B27" s="0">
-        <v>51.9759</v>
+        <v>113.4497</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0163</v>
+        <v>0.9811</v>
       </c>
       <c r="B28" s="0">
-        <v>47.4213</v>
+        <v>112.749</v>
       </c>
     </row>
     <row r="29"/>
@@ -12500,202 +12492,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9868</v>
+        <v>0.0185</v>
       </c>
       <c r="B3" s="0">
-        <v>292.1026</v>
+        <v>171.2541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9454</v>
+        <v>0.0437</v>
       </c>
       <c r="B4" s="0">
-        <v>290.6786</v>
+        <v>176.9007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.895</v>
+        <v>0.0665</v>
       </c>
       <c r="B5" s="0">
-        <v>289.9561</v>
+        <v>179.0229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8446</v>
+        <v>0.0941</v>
       </c>
       <c r="B6" s="0">
-        <v>290.2907</v>
+        <v>180.4421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7938</v>
+        <v>0.1217</v>
       </c>
       <c r="B7" s="0">
-        <v>289.5681</v>
+        <v>182.2136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7438</v>
+        <v>0.1426</v>
       </c>
       <c r="B8" s="0">
-        <v>289.1981</v>
+        <v>181.5162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6929</v>
+        <v>0.1726</v>
       </c>
       <c r="B9" s="0">
-        <v>289.1802</v>
+        <v>183.641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6416</v>
+        <v>0.194</v>
       </c>
       <c r="B10" s="0">
-        <v>288.4574</v>
+        <v>184.0009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5926</v>
+        <v>0.2168</v>
       </c>
       <c r="B11" s="0">
-        <v>288.4401</v>
+        <v>185.066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5413</v>
+        <v>0.2439</v>
       </c>
       <c r="B12" s="0">
-        <v>287.0126</v>
+        <v>185.4279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4904</v>
+        <v>0.2924</v>
       </c>
       <c r="B13" s="0">
-        <v>286.2899</v>
+        <v>186.8544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.44</v>
+        <v>0.3404</v>
       </c>
       <c r="B14" s="0">
-        <v>285.9198</v>
+        <v>187.2237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3905</v>
+        <v>0.3922</v>
       </c>
       <c r="B15" s="0">
-        <v>285.55</v>
+        <v>188.2991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.342</v>
+        <v>0.4422</v>
       </c>
       <c r="B16" s="0">
-        <v>283.4188</v>
+        <v>188.669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2964</v>
+        <v>0.4926</v>
       </c>
       <c r="B17" s="0">
-        <v>282.3456</v>
+        <v>188.6868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2408</v>
+        <v>0.5439</v>
       </c>
       <c r="B18" s="0">
-        <v>280.9166</v>
+        <v>189.4096</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2165</v>
+        <v>0.5929</v>
       </c>
       <c r="B19" s="0">
-        <v>279.8509</v>
+        <v>189.4268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1965</v>
+        <v>0.6447</v>
       </c>
       <c r="B20" s="0">
-        <v>279.8439</v>
+        <v>189.7975</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.169</v>
+        <v>0.6932</v>
       </c>
       <c r="B21" s="0">
-        <v>278.4247</v>
+        <v>191.224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1423</v>
+        <v>0.7441</v>
       </c>
       <c r="B22" s="0">
-        <v>277.0059</v>
+        <v>190.5372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1162</v>
+        <v>0.7931</v>
       </c>
       <c r="B23" s="0">
-        <v>274.8825</v>
+        <v>191.6115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0929</v>
+        <v>0.8449</v>
       </c>
       <c r="B24" s="0">
-        <v>272.7602</v>
+        <v>191.6298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0672</v>
+        <v>0.8948</v>
       </c>
       <c r="B25" s="0">
-        <v>269.2275</v>
+        <v>191.6474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0425</v>
+        <v>0.9448</v>
       </c>
       <c r="B26" s="0">
-        <v>263.581</v>
+        <v>192.3697</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0159</v>
+        <v>0.9857</v>
       </c>
       <c r="B27" s="0">
-        <v>250.182</v>
+        <v>192.7365</v>
       </c>
     </row>
     <row r="28"/>
@@ -12707,7 +12699,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12728,197 +12720,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9446</v>
+        <v>0.9846</v>
       </c>
       <c r="B3" s="0">
-        <v>359.5445</v>
+        <v>234.3147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8941</v>
+        <v>0.9437</v>
       </c>
       <c r="B4" s="0">
-        <v>359.0087</v>
+        <v>233.5956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8431</v>
+        <v>0.8966</v>
       </c>
       <c r="B5" s="0">
-        <v>358.4729</v>
+        <v>233.2266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7939</v>
+        <v>0.8434</v>
       </c>
       <c r="B6" s="0">
-        <v>357.4012</v>
+        <v>232.8555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7429</v>
+        <v>0.7925</v>
       </c>
       <c r="B7" s="0">
-        <v>356.5975</v>
+        <v>232.8375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6919</v>
+        <v>0.7435</v>
       </c>
       <c r="B8" s="0">
-        <v>355.7937</v>
+        <v>232.1156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6423</v>
+        <v>0.6926</v>
       </c>
       <c r="B9" s="0">
-        <v>354.4541</v>
+        <v>231.3929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5913</v>
+        <v>0.6427</v>
       </c>
       <c r="B10" s="0">
-        <v>353.6504</v>
+        <v>230.6706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5407</v>
+        <v>0.5933</v>
       </c>
       <c r="B11" s="0">
-        <v>352.0429</v>
+        <v>230.6532</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4906</v>
+        <v>0.5414</v>
       </c>
       <c r="B12" s="0">
-        <v>350.9712</v>
+        <v>230.2826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4453</v>
+        <v>0.4915</v>
       </c>
       <c r="B13" s="0">
-        <v>350.1674</v>
+        <v>229.5602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.401</v>
+        <v>0.443</v>
       </c>
       <c r="B14" s="0">
-        <v>348.8279</v>
+        <v>228.8384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3414</v>
+        <v>0.3959</v>
       </c>
       <c r="B15" s="0">
-        <v>346.9524</v>
+        <v>228.4695</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2994</v>
+        <v>0.3522</v>
       </c>
       <c r="B16" s="0">
-        <v>345.6129</v>
+        <v>227.0446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2403</v>
+        <v>0.2923</v>
       </c>
       <c r="B17" s="0">
-        <v>343.2016</v>
+        <v>225.9664</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2217</v>
+        <v>0.2433</v>
       </c>
       <c r="B18" s="0">
-        <v>342.1299</v>
+        <v>224.5397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.195</v>
+        <v>0.2171</v>
       </c>
       <c r="B19" s="0">
-        <v>340.5224</v>
+        <v>224.1782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1678</v>
+        <v>0.1962</v>
       </c>
       <c r="B20" s="0">
-        <v>338.9149</v>
+        <v>223.1137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.143</v>
+        <v>0.1663</v>
       </c>
       <c r="B21" s="0">
-        <v>337.0395</v>
+        <v>221.6937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1206</v>
+        <v>0.1463</v>
       </c>
       <c r="B22" s="0">
-        <v>334.8962</v>
+        <v>220.982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0943</v>
+        <v>0.1187</v>
       </c>
       <c r="B23" s="0">
-        <v>330.8774</v>
+        <v>219.2104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0691</v>
+        <v>0.0912</v>
       </c>
       <c r="B24" s="0">
-        <v>324.9833</v>
+        <v>217.4389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0433</v>
+        <v>0.0674</v>
       </c>
       <c r="B25" s="0">
-        <v>315.6062</v>
+        <v>216.0211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
+        <v>0.0408</v>
+      </c>
+      <c r="B26" s="0">
+        <v>211.431</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
         <v>0.017</v>
       </c>
-      <c r="B26" s="0">
-        <v>293.637</v>
-      </c>
-    </row>
-    <row r="27"/>
+      <c r="B27" s="0">
+        <v>202.6136</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
